--- a/www/IndicatorsPerCountry/Chile_CopperProduction_TerritorialRef_1946_2012_CCode_152.xlsx
+++ b/www/IndicatorsPerCountry/Chile_CopperProduction_TerritorialRef_1946_2012_CCode_152.xlsx
@@ -336,13 +336,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Chile_CopperProduction_TerritorialRef_1946_2012_CCode_152.xlsx
+++ b/www/IndicatorsPerCountry/Chile_CopperProduction_TerritorialRef_1946_2012_CCode_152.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="155">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,31 +39,16 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>8.8</t>
   </si>
   <si>
     <t>8</t>
@@ -78,235 +63,385 @@
     <t>12</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>20</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>33</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>209</t>
+    <t>71</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>220</t>
   </si>
   <si>
     <t>223</t>
   </si>
   <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>356.3</t>
-  </si>
-  <si>
-    <t>322.2</t>
-  </si>
-  <si>
-    <t>364.1</t>
-  </si>
-  <si>
-    <t>401.3</t>
-  </si>
-  <si>
-    <t>399.3</t>
-  </si>
-  <si>
-    <t>406.3</t>
-  </si>
-  <si>
-    <t>316.4</t>
-  </si>
-  <si>
-    <t>368.2</t>
-  </si>
-  <si>
-    <t>323.4</t>
-  </si>
-  <si>
-    <t>382.3</t>
-  </si>
-  <si>
-    <t>369.4</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>410</t>
+    <t>103</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>490</t>
   </si>
   <si>
     <t>486</t>
   </si>
   <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>536.387</t>
-  </si>
-  <si>
-    <t>553.924</t>
-  </si>
-  <si>
-    <t>722.053</t>
-  </si>
-  <si>
-    <t>843.213</t>
-  </si>
-  <si>
-    <t>862.578</t>
-  </si>
-  <si>
-    <t>1035.574</t>
-  </si>
-  <si>
-    <t>1009.898</t>
-  </si>
-  <si>
-    <t>1048.473</t>
-  </si>
-  <si>
-    <t>1190.281</t>
-  </si>
-  <si>
-    <t>1267.867</t>
-  </si>
-  <si>
-    <t>1276.249</t>
-  </si>
-  <si>
-    <t>1247.145</t>
-  </si>
-  <si>
-    <t>1235.164</t>
-  </si>
-  <si>
-    <t>1300</t>
+    <t>467</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>1005.2</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>1628</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1855</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>2055.4</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2488.6</t>
+  </si>
+  <si>
+    <t>3115.8</t>
+  </si>
+  <si>
+    <t>3392</t>
+  </si>
+  <si>
+    <t>3686.8</t>
+  </si>
+  <si>
+    <t>4391.2</t>
+  </si>
+  <si>
+    <t>4602.4</t>
+  </si>
+  <si>
+    <t>4739</t>
+  </si>
+  <si>
+    <t>4581</t>
+  </si>
+  <si>
+    <t>4904.2</t>
+  </si>
+  <si>
+    <t>5412.5</t>
+  </si>
+  <si>
+    <t>5320.5</t>
+  </si>
+  <si>
+    <t>5360.8</t>
+  </si>
+  <si>
+    <t>5557</t>
+  </si>
+  <si>
+    <t>5327</t>
+  </si>
+  <si>
+    <t>5394.4</t>
+  </si>
+  <si>
+    <t>5418.6</t>
+  </si>
+  <si>
+    <t>5262.8</t>
+  </si>
+  <si>
+    <t>5430</t>
   </si>
   <si>
     <t>Description</t>
@@ -1665,7 +1800,7 @@
         <v>1801.0</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -1682,7 +1817,7 @@
         <v>1802.0</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -1699,7 +1834,7 @@
         <v>1803.0</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -1716,7 +1851,7 @@
         <v>1804.0</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -1733,7 +1868,7 @@
         <v>1805.0</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -1750,7 +1885,7 @@
         <v>1806.0</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -1767,7 +1902,7 @@
         <v>1807.0</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -1784,7 +1919,7 @@
         <v>1808.0</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -1801,7 +1936,7 @@
         <v>1809.0</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -1818,7 +1953,7 @@
         <v>1810.0</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -1835,7 +1970,7 @@
         <v>1811.0</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -1852,7 +1987,7 @@
         <v>1812.0</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -1869,7 +2004,7 @@
         <v>1813.0</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -1886,7 +2021,7 @@
         <v>1814.0</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -1903,7 +2038,7 @@
         <v>1815.0</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -1920,7 +2055,7 @@
         <v>1816.0</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -1937,7 +2072,7 @@
         <v>1817.0</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -1954,7 +2089,7 @@
         <v>1818.0</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -1971,7 +2106,7 @@
         <v>1819.0</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -1988,7 +2123,7 @@
         <v>1820.0</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -2005,7 +2140,7 @@
         <v>1821.0</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -2022,7 +2157,7 @@
         <v>1822.0</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -2039,7 +2174,7 @@
         <v>1823.0</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -2056,7 +2191,7 @@
         <v>1824.0</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -2073,7 +2208,7 @@
         <v>1825.0</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -2090,7 +2225,7 @@
         <v>1826.0</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -2107,7 +2242,7 @@
         <v>1827.0</v>
       </c>
       <c r="E101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -2124,7 +2259,7 @@
         <v>1828.0</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -2141,7 +2276,7 @@
         <v>1829.0</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -2158,7 +2293,7 @@
         <v>1830.0</v>
       </c>
       <c r="E104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -2175,7 +2310,7 @@
         <v>1831.0</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -2192,7 +2327,7 @@
         <v>1832.0</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -2209,7 +2344,7 @@
         <v>1833.0</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -2226,7 +2361,7 @@
         <v>1834.0</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -2243,7 +2378,7 @@
         <v>1835.0</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -2260,7 +2395,7 @@
         <v>1836.0</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -2277,7 +2412,7 @@
         <v>1837.0</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -2294,7 +2429,7 @@
         <v>1838.0</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -2311,7 +2446,7 @@
         <v>1839.0</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -2328,7 +2463,7 @@
         <v>1840.0</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -2345,7 +2480,7 @@
         <v>1841.0</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -2362,7 +2497,7 @@
         <v>1842.0</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -2379,7 +2514,7 @@
         <v>1843.0</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -2396,7 +2531,7 @@
         <v>1844.0</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -2413,7 +2548,7 @@
         <v>1845.0</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -2430,7 +2565,7 @@
         <v>1846.0</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
@@ -2447,7 +2582,7 @@
         <v>1847.0</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -2464,7 +2599,7 @@
         <v>1848.0</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -2481,7 +2616,7 @@
         <v>1849.0</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -2498,7 +2633,7 @@
         <v>1850.0</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -2515,7 +2650,7 @@
         <v>1851.0</v>
       </c>
       <c r="E125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -2532,7 +2667,7 @@
         <v>1852.0</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -2549,7 +2684,7 @@
         <v>1853.0</v>
       </c>
       <c r="E127" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128">
@@ -2566,7 +2701,7 @@
         <v>1854.0</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -2583,7 +2718,7 @@
         <v>1855.0</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -2600,7 +2735,7 @@
         <v>1856.0</v>
       </c>
       <c r="E130" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
@@ -2617,7 +2752,7 @@
         <v>1857.0</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
@@ -2634,7 +2769,7 @@
         <v>1858.0</v>
       </c>
       <c r="E132" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
@@ -2651,7 +2786,7 @@
         <v>1859.0</v>
       </c>
       <c r="E133" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134">
@@ -2668,7 +2803,7 @@
         <v>1860.0</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
@@ -2685,7 +2820,7 @@
         <v>1861.0</v>
       </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
@@ -2702,7 +2837,7 @@
         <v>1862.0</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137">
@@ -2719,7 +2854,7 @@
         <v>1863.0</v>
       </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138">
@@ -2736,7 +2871,7 @@
         <v>1864.0</v>
       </c>
       <c r="E138" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
@@ -2753,7 +2888,7 @@
         <v>1865.0</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
@@ -2770,7 +2905,7 @@
         <v>1866.0</v>
       </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141">
@@ -2787,7 +2922,7 @@
         <v>1867.0</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
@@ -2804,7 +2939,7 @@
         <v>1868.0</v>
       </c>
       <c r="E142" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
@@ -2821,7 +2956,7 @@
         <v>1869.0</v>
       </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
@@ -2838,7 +2973,7 @@
         <v>1870.0</v>
       </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -2855,7 +2990,7 @@
         <v>1871.0</v>
       </c>
       <c r="E145" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -2872,7 +3007,7 @@
         <v>1872.0</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
@@ -2889,7 +3024,7 @@
         <v>1873.0</v>
       </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148">
@@ -2906,7 +3041,7 @@
         <v>1874.0</v>
       </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
@@ -2923,7 +3058,7 @@
         <v>1875.0</v>
       </c>
       <c r="E149" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
@@ -2940,7 +3075,7 @@
         <v>1876.0</v>
       </c>
       <c r="E150" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
@@ -2957,7 +3092,7 @@
         <v>1877.0</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152">
@@ -2974,7 +3109,7 @@
         <v>1878.0</v>
       </c>
       <c r="E152" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
@@ -2991,7 +3126,7 @@
         <v>1879.0</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154">
@@ -3008,7 +3143,7 @@
         <v>1880.0</v>
       </c>
       <c r="E154" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155">
@@ -3025,7 +3160,7 @@
         <v>1881.0</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156">
@@ -3042,7 +3177,7 @@
         <v>1882.0</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157">
@@ -3059,7 +3194,7 @@
         <v>1883.0</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
@@ -3076,7 +3211,7 @@
         <v>1884.0</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159">
@@ -3093,7 +3228,7 @@
         <v>1885.0</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160">
@@ -3110,7 +3245,7 @@
         <v>1886.0</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161">
@@ -3127,7 +3262,7 @@
         <v>1887.0</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162">
@@ -3144,7 +3279,7 @@
         <v>1888.0</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
@@ -3161,7 +3296,7 @@
         <v>1889.0</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
@@ -3178,7 +3313,7 @@
         <v>1890.0</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165">
@@ -3195,7 +3330,7 @@
         <v>1891.0</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
@@ -3212,7 +3347,7 @@
         <v>1892.0</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
@@ -3229,7 +3364,7 @@
         <v>1893.0</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
@@ -3246,7 +3381,7 @@
         <v>1894.0</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169">
@@ -3263,7 +3398,7 @@
         <v>1895.0</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170">
@@ -3280,7 +3415,7 @@
         <v>1896.0</v>
       </c>
       <c r="E170" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
@@ -3297,7 +3432,7 @@
         <v>1897.0</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172">
@@ -3314,7 +3449,7 @@
         <v>1898.0</v>
       </c>
       <c r="E172" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173">
@@ -3331,7 +3466,7 @@
         <v>1899.0</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174">
@@ -3348,7 +3483,7 @@
         <v>1900.0</v>
       </c>
       <c r="E174" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175">
@@ -3365,7 +3500,7 @@
         <v>1901.0</v>
       </c>
       <c r="E175" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176">
@@ -3382,7 +3517,7 @@
         <v>1902.0</v>
       </c>
       <c r="E176" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177">
@@ -3399,7 +3534,7 @@
         <v>1903.0</v>
       </c>
       <c r="E177" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178">
@@ -3416,7 +3551,7 @@
         <v>1904.0</v>
       </c>
       <c r="E178" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179">
@@ -3433,7 +3568,7 @@
         <v>1905.0</v>
       </c>
       <c r="E179" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180">
@@ -3450,7 +3585,7 @@
         <v>1906.0</v>
       </c>
       <c r="E180" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="181">
@@ -3467,7 +3602,7 @@
         <v>1907.0</v>
       </c>
       <c r="E181" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="182">
@@ -3484,7 +3619,7 @@
         <v>1908.0</v>
       </c>
       <c r="E182" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183">
@@ -3501,7 +3636,7 @@
         <v>1909.0</v>
       </c>
       <c r="E183" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184">
@@ -3518,7 +3653,7 @@
         <v>1910.0</v>
       </c>
       <c r="E184" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185">
@@ -3535,7 +3670,7 @@
         <v>1911.0</v>
       </c>
       <c r="E185" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186">
@@ -3552,7 +3687,7 @@
         <v>1912.0</v>
       </c>
       <c r="E186" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187">
@@ -3569,7 +3704,7 @@
         <v>1913.0</v>
       </c>
       <c r="E187" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188">
@@ -3586,7 +3721,7 @@
         <v>1914.0</v>
       </c>
       <c r="E188" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189">
@@ -3603,7 +3738,7 @@
         <v>1915.0</v>
       </c>
       <c r="E189" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190">
@@ -3620,7 +3755,7 @@
         <v>1916.0</v>
       </c>
       <c r="E190" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191">
@@ -3637,7 +3772,7 @@
         <v>1917.0</v>
       </c>
       <c r="E191" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192">
@@ -3654,7 +3789,7 @@
         <v>1918.0</v>
       </c>
       <c r="E192" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193">
@@ -3671,7 +3806,7 @@
         <v>1919.0</v>
       </c>
       <c r="E193" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194">
@@ -3688,7 +3823,7 @@
         <v>1920.0</v>
       </c>
       <c r="E194" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195">
@@ -3705,7 +3840,7 @@
         <v>1921.0</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="196">
@@ -3722,7 +3857,7 @@
         <v>1922.0</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197">
@@ -3739,7 +3874,7 @@
         <v>1923.0</v>
       </c>
       <c r="E197" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198">
@@ -3756,7 +3891,7 @@
         <v>1924.0</v>
       </c>
       <c r="E198" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199">
@@ -3773,7 +3908,7 @@
         <v>1925.0</v>
       </c>
       <c r="E199" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200">
@@ -3790,7 +3925,7 @@
         <v>1926.0</v>
       </c>
       <c r="E200" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201">
@@ -3807,7 +3942,7 @@
         <v>1927.0</v>
       </c>
       <c r="E201" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202">
@@ -3824,7 +3959,7 @@
         <v>1928.0</v>
       </c>
       <c r="E202" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203">
@@ -3841,7 +3976,7 @@
         <v>1929.0</v>
       </c>
       <c r="E203" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204">
@@ -3858,7 +3993,7 @@
         <v>1930.0</v>
       </c>
       <c r="E204" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205">
@@ -3875,7 +4010,7 @@
         <v>1931.0</v>
       </c>
       <c r="E205" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206">
@@ -3892,7 +4027,7 @@
         <v>1932.0</v>
       </c>
       <c r="E206" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207">
@@ -3909,7 +4044,7 @@
         <v>1933.0</v>
       </c>
       <c r="E207" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208">
@@ -3926,7 +4061,7 @@
         <v>1934.0</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209">
@@ -3943,7 +4078,7 @@
         <v>1935.0</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210">
@@ -3960,7 +4095,7 @@
         <v>1936.0</v>
       </c>
       <c r="E210" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211">
@@ -3977,7 +4112,7 @@
         <v>1937.0</v>
       </c>
       <c r="E211" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212">
@@ -3994,7 +4129,7 @@
         <v>1938.0</v>
       </c>
       <c r="E212" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213">
@@ -4011,7 +4146,7 @@
         <v>1939.0</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214">
@@ -4028,7 +4163,7 @@
         <v>1940.0</v>
       </c>
       <c r="E214" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215">
@@ -4045,7 +4180,7 @@
         <v>1941.0</v>
       </c>
       <c r="E215" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216">
@@ -4062,7 +4197,7 @@
         <v>1942.0</v>
       </c>
       <c r="E216" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217">
@@ -4079,7 +4214,7 @@
         <v>1943.0</v>
       </c>
       <c r="E217" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218">
@@ -4096,7 +4231,7 @@
         <v>1944.0</v>
       </c>
       <c r="E218" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219">
@@ -4113,7 +4248,7 @@
         <v>1945.0</v>
       </c>
       <c r="E219" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220">
@@ -4130,7 +4265,7 @@
         <v>1946.0</v>
       </c>
       <c r="E220" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221">
@@ -4147,7 +4282,7 @@
         <v>1947.0</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222">
@@ -4164,7 +4299,7 @@
         <v>1948.0</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223">
@@ -4181,7 +4316,7 @@
         <v>1949.0</v>
       </c>
       <c r="E223" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224">
@@ -4198,7 +4333,7 @@
         <v>1950.0</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225">
@@ -4215,7 +4350,7 @@
         <v>1951.0</v>
       </c>
       <c r="E225" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="226">
@@ -4232,7 +4367,7 @@
         <v>1952.0</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="227">
@@ -4249,7 +4384,7 @@
         <v>1953.0</v>
       </c>
       <c r="E227" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228">
@@ -4266,7 +4401,7 @@
         <v>1954.0</v>
       </c>
       <c r="E228" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="229">
@@ -4283,7 +4418,7 @@
         <v>1955.0</v>
       </c>
       <c r="E229" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230">
@@ -4300,7 +4435,7 @@
         <v>1956.0</v>
       </c>
       <c r="E230" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="231">
@@ -4317,7 +4452,7 @@
         <v>1957.0</v>
       </c>
       <c r="E231" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="232">
@@ -4334,7 +4469,7 @@
         <v>1958.0</v>
       </c>
       <c r="E232" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="233">
@@ -4351,7 +4486,7 @@
         <v>1959.0</v>
       </c>
       <c r="E233" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234">
@@ -4368,7 +4503,7 @@
         <v>1960.0</v>
       </c>
       <c r="E234" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="235">
@@ -4385,7 +4520,7 @@
         <v>1961.0</v>
       </c>
       <c r="E235" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236">
@@ -4402,7 +4537,7 @@
         <v>1962.0</v>
       </c>
       <c r="E236" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="237">
@@ -4419,7 +4554,7 @@
         <v>1963.0</v>
       </c>
       <c r="E237" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="238">
@@ -4436,7 +4571,7 @@
         <v>1964.0</v>
       </c>
       <c r="E238" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="239">
@@ -4453,7 +4588,7 @@
         <v>1965.0</v>
       </c>
       <c r="E239" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="240">
@@ -4470,7 +4605,7 @@
         <v>1966.0</v>
       </c>
       <c r="E240" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="241">
@@ -4487,7 +4622,7 @@
         <v>1967.0</v>
       </c>
       <c r="E241" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
     </row>
     <row r="242">
@@ -4504,7 +4639,7 @@
         <v>1968.0</v>
       </c>
       <c r="E242" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="243">
@@ -4521,7 +4656,7 @@
         <v>1969.0</v>
       </c>
       <c r="E243" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="244">
@@ -4538,7 +4673,7 @@
         <v>1970.0</v>
       </c>
       <c r="E244" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="245">
@@ -4555,7 +4690,7 @@
         <v>1971.0</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246">
@@ -4572,7 +4707,7 @@
         <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="247">
@@ -4589,7 +4724,7 @@
         <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="248">
@@ -4606,7 +4741,7 @@
         <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="249">
@@ -4623,7 +4758,7 @@
         <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="250">
@@ -4640,7 +4775,7 @@
         <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="251">
@@ -4657,7 +4792,7 @@
         <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="252">
@@ -4674,7 +4809,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="253">
@@ -4691,7 +4826,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="254">
@@ -4708,7 +4843,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="255">
@@ -4725,7 +4860,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="256">
@@ -4742,7 +4877,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="257">
@@ -4759,7 +4894,7 @@
         <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="258">
@@ -4776,7 +4911,7 @@
         <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="259">
@@ -4793,7 +4928,7 @@
         <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="260">
@@ -4810,7 +4945,7 @@
         <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="261">
@@ -4827,7 +4962,7 @@
         <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262">
@@ -4844,7 +4979,7 @@
         <v>1988.0</v>
       </c>
       <c r="E262" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="263">
@@ -4861,7 +4996,7 @@
         <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264">
@@ -4878,7 +5013,7 @@
         <v>1990.0</v>
       </c>
       <c r="E264" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="265">
@@ -4895,7 +5030,7 @@
         <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="266">
@@ -4912,7 +5047,7 @@
         <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="267">
@@ -4929,7 +5064,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="268">
@@ -4946,7 +5081,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="269">
@@ -4963,7 +5098,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="270">
@@ -4980,7 +5115,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="271">
@@ -4997,7 +5132,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
     </row>
     <row r="272">
@@ -5014,7 +5149,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="273">
@@ -5031,7 +5166,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="274">
@@ -5048,7 +5183,7 @@
         <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="275">
@@ -5065,7 +5200,7 @@
         <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="276">
@@ -5082,7 +5217,7 @@
         <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="277">
@@ -5099,7 +5234,7 @@
         <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
     </row>
     <row r="278">
@@ -5116,7 +5251,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="279">
@@ -5133,7 +5268,7 @@
         <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="280">
@@ -5150,7 +5285,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
     </row>
     <row r="281">
@@ -5167,7 +5302,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
     </row>
     <row r="282">
@@ -5184,7 +5319,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="283">
@@ -5201,7 +5336,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="284">
@@ -5218,7 +5353,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="285">
@@ -5235,7 +5370,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
     </row>
     <row r="286">
@@ -5252,7 +5387,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5270,50 +5405,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
